--- a/Project/Project/Test.xlsx
+++ b/Project/Project/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Current\Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBC097-3A42-4026-8262-9C38A8FD8811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73255B22-952B-4D25-A72C-506ADB3C6548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3477,7 +3477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>

--- a/Project/Project/Test.xlsx
+++ b/Project/Project/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Current\Project\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73255B22-952B-4D25-A72C-506ADB3C6548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8FF44D-1793-4BD3-B36C-016194DB49EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="4824" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Справка" sheetId="1" r:id="rId1"/>
@@ -1918,10 +1918,10 @@
   <dimension ref="A1:U1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Project/Project/Test.xlsx
+++ b/Project/Project/Test.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="супер" sheetId="1" r:id="rId1"/>
+    <sheet name="Справка" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="457">
   <si>
     <t>№</t>
   </si>
@@ -205,532 +205,529 @@
     <t>[2 очередь] Замена масла около 2х часов. Лить спереди. См. ур. масла сзади</t>
   </si>
   <si>
+    <t>290822</t>
+  </si>
+  <si>
+    <t>Сверху на ВП</t>
+  </si>
+  <si>
+    <t>Kentek LS32655</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Aerzen D98S №1</t>
+  </si>
+  <si>
+    <t>Д6 Б3</t>
+  </si>
+  <si>
+    <t>к22 к24</t>
+  </si>
+  <si>
+    <t>(Кубичек) Нужны 2 накручивающихся шланга и 2ГК 10л</t>
+  </si>
+  <si>
+    <t>XPC2800</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Aerzen D98S №2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Atlas Copco ZB 5 VSD+ №3</t>
+  </si>
+  <si>
+    <t>APF252812</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Atlas Copco ZB 5 VSD+ №4</t>
+  </si>
+  <si>
+    <t>APF246034</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Atlas Copco ZB110VSD №5</t>
+  </si>
+  <si>
+    <t>Сломан ФЧП</t>
+  </si>
+  <si>
+    <t>APF222522</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>KAESER ЕSD 375 M 1.1</t>
+  </si>
+  <si>
+    <t>2 очередь</t>
+  </si>
+  <si>
+    <t>Бочка</t>
+  </si>
+  <si>
+    <t>тН6 т17 -</t>
+  </si>
+  <si>
+    <t>У Игоря</t>
+  </si>
+  <si>
+    <t>Длинная головка на 19, большой кордан. Масло должно скрывать боёк</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>KAESER ЕSD 375 M 2.1</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>KAESER ЕSD 375 M 3.1</t>
+  </si>
+  <si>
+    <t>080622</t>
+  </si>
+  <si>
+    <t>11038</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>KAESER ЕSD 375 M 4.1</t>
+  </si>
+  <si>
+    <t>100622</t>
+  </si>
+  <si>
+    <t>11206</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>KAESER CSDХ 165 M 1.2</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>т13 к27+30</t>
+  </si>
+  <si>
+    <t>В ЭЩ</t>
+  </si>
+  <si>
+    <t>Масло: рес ? 24л, рад ? 15л, МФ ? 1л, быстросъём-к в КП</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>KAESER CSDХ 165 M 2.2</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>KAESER CSDХ 165 M 3.2</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>KAESER CSDХ 165 M 4.2</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ОС</t>
+  </si>
+  <si>
+    <t>TI 601 M 1.3</t>
+  </si>
+  <si>
+    <t>Кувалда</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Сбросить ТО: Зажать ESC &gt; Время до ТО поменять на 2301 и обратно</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TI 601 M 2.3</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>TI 601 M 3.3</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Atlas Copco GA45 №3</t>
+  </si>
+  <si>
+    <t>3 очередь</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>Т13, К32</t>
+  </si>
+  <si>
+    <t>5-шка. Короткий шланг.(Приоритет: 1-й парам. "Уставка давления")</t>
+  </si>
+  <si>
+    <t>010822</t>
+  </si>
+  <si>
+    <t>34197</t>
+  </si>
+  <si>
+    <t>АРI481472</t>
+  </si>
+  <si>
+    <t>A9195</t>
+  </si>
+  <si>
+    <t>2903 7525 00</t>
+  </si>
+  <si>
+    <t>DE 4051</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Atlas Copco GA45 №4</t>
+  </si>
+  <si>
+    <t>100822</t>
+  </si>
+  <si>
+    <t>8475</t>
+  </si>
+  <si>
+    <t>АРI487663</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Aerzen D98S DG</t>
+  </si>
+  <si>
+    <t>1052225</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Copco ZB-110 №2 </t>
+  </si>
+  <si>
+    <t>APF222664</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Copco ZB-110 №3 </t>
+  </si>
+  <si>
+    <t>APF222434</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>REMEZA ВК75Е-13</t>
+  </si>
+  <si>
+    <t>КСМД</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Сброс ТО: 0+три последние цифры СН</t>
+  </si>
+  <si>
+    <t>130722</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>181125</t>
+  </si>
+  <si>
+    <t>SA6152</t>
+  </si>
+  <si>
+    <t>SH8147</t>
+  </si>
+  <si>
+    <t>DF5004</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Comaro MD 37-08</t>
+  </si>
+  <si>
+    <t>9016</t>
+  </si>
+  <si>
+    <t>C5N37B424424</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Dali DL-6,0/8RA</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>Сумка</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>Нужен поддон для масла. Воронка и шланг не нужны.</t>
+  </si>
+  <si>
+    <t>290722</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>13092610</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Atlas Copco GA45 №1</t>
+  </si>
+  <si>
+    <t>ГП 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АРI468267</t>
+  </si>
+  <si>
+    <t>Atlas Copco GA45 №2</t>
+  </si>
+  <si>
+    <t>050722</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АРI468268</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>15-21</t>
+  </si>
+  <si>
+    <t>300622</t>
+  </si>
+  <si>
+    <t>7776</t>
+  </si>
+  <si>
+    <t>АРI487621</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ГП 2</t>
+  </si>
+  <si>
+    <t>15-23</t>
+  </si>
+  <si>
+    <t>API869348</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>15-22</t>
+  </si>
+  <si>
+    <t>АРI487620</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Copco G7FF </t>
+  </si>
+  <si>
+    <t>Нов.сгущ.</t>
+  </si>
+  <si>
+    <t>9989</t>
+  </si>
+  <si>
+    <t>Это тоже пульпа</t>
+  </si>
+  <si>
+    <t>ITJ155923</t>
+  </si>
+  <si>
+    <t>XPZ1180</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Atlas Copco GA7FF №1</t>
+  </si>
+  <si>
+    <t>к36</t>
+  </si>
+  <si>
+    <t>1Л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это тоже пульпа. Сбросить ТО: D6 (Ключик) -&gt; Sure? -&gt; Ok. </t>
+  </si>
+  <si>
+    <t>110722</t>
+  </si>
+  <si>
+    <t>29880</t>
+  </si>
+  <si>
+    <t>CAI720697</t>
+  </si>
+  <si>
+    <t>A9615</t>
+  </si>
+  <si>
+    <t>DF5075</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Atlas Copco GA7FF №2</t>
+  </si>
+  <si>
+    <t>CAI723506</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>S05950321</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Dali  DL-6,0/8RA</t>
+  </si>
+  <si>
+    <t>Пульпа-ная</t>
+  </si>
+  <si>
+    <t>15020109</t>
+  </si>
+  <si>
+    <t>XPA1700</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>KAESER SM13</t>
+  </si>
+  <si>
+    <t>Перегрузка</t>
+  </si>
+  <si>
+    <t>(ПРС - официальное название) БС нужен. Можно без поддона.</t>
+  </si>
+  <si>
     <t>280822</t>
-  </si>
-  <si>
-    <t>Сверху на ВП</t>
-  </si>
-  <si>
-    <t>Kentek LS32655</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Aerzen D98S №1</t>
-  </si>
-  <si>
-    <t>Д6 Б3</t>
-  </si>
-  <si>
-    <t>к22 к24</t>
-  </si>
-  <si>
-    <t>(Кубичек) Нужны 2 накручивающихся шланга и 2ГК 10л</t>
-  </si>
-  <si>
-    <t>XPC2800</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Aerzen D98S №2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Atlas Copco ZB 5 VSD+ №3</t>
-  </si>
-  <si>
-    <t>APF252812</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Atlas Copco ZB 5 VSD+ №4</t>
-  </si>
-  <si>
-    <t>APF246034</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Atlas Copco ZB110VSD №5</t>
-  </si>
-  <si>
-    <t>Сломан ФЧП</t>
-  </si>
-  <si>
-    <t>APF222522</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>KAESER ЕSD 375 M 1.1</t>
-  </si>
-  <si>
-    <t>2 очередь</t>
-  </si>
-  <si>
-    <t>Бочка</t>
-  </si>
-  <si>
-    <t>тН6 т17 -</t>
-  </si>
-  <si>
-    <t>У Игоря</t>
-  </si>
-  <si>
-    <t>Длинная головка на 19, большой кордан. Масло должно скрывать боёк</t>
-  </si>
-  <si>
-    <t>020622</t>
-  </si>
-  <si>
-    <t>10599</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>KAESER ЕSD 375 M 2.1</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>KAESER ЕSD 375 M 3.1</t>
-  </si>
-  <si>
-    <t>080622</t>
-  </si>
-  <si>
-    <t>11038</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>KAESER ЕSD 375 M 4.1</t>
-  </si>
-  <si>
-    <t>100622</t>
-  </si>
-  <si>
-    <t>11206</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>KAESER CSDХ 165 M 1.2</t>
-  </si>
-  <si>
-    <t>35-40</t>
-  </si>
-  <si>
-    <t>т13 к27+30</t>
-  </si>
-  <si>
-    <t>В ЭЩ</t>
-  </si>
-  <si>
-    <t>Масло: рес ? 24л, рад ? 15л, МФ ? 1л, быстросъём-к в КП</t>
-  </si>
-  <si>
-    <t>1209</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>KAESER CSDХ 165 M 2.2</t>
-  </si>
-  <si>
-    <t>1210</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>KAESER CSDХ 165 M 3.2</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>KAESER CSDХ 165 M 4.2</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>ОС</t>
-  </si>
-  <si>
-    <t>TI 601 M 1.3</t>
-  </si>
-  <si>
-    <t>Кувалда</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Сбросить ТО: Зажать ESC &gt; Время до ТО поменять на 2301 и обратно</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>TI 601 M 2.3</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>TI 601 M 3.3</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Atlas Copco GA45 №3</t>
-  </si>
-  <si>
-    <t>3 очередь</t>
-  </si>
-  <si>
-    <t>15-20</t>
-  </si>
-  <si>
-    <t>Т13, К32</t>
-  </si>
-  <si>
-    <t>5-шка. Короткий шланг.(Приоритет: 1-й парам. "Уставка давления")</t>
-  </si>
-  <si>
-    <t>010822</t>
-  </si>
-  <si>
-    <t>34197</t>
-  </si>
-  <si>
-    <t>АРI481472</t>
-  </si>
-  <si>
-    <t>A9195</t>
-  </si>
-  <si>
-    <t>2903 7525 00</t>
-  </si>
-  <si>
-    <t>DE 4051</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Atlas Copco GA45 №4</t>
-  </si>
-  <si>
-    <t>100822</t>
-  </si>
-  <si>
-    <t>8475</t>
-  </si>
-  <si>
-    <t>АРI487663</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Aerzen D98S DG</t>
-  </si>
-  <si>
-    <t>1052225</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Copco ZB-110 №2 </t>
-  </si>
-  <si>
-    <t>APF222664</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Copco ZB-110 №3 </t>
-  </si>
-  <si>
-    <t>APF222434</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>REMEZA ВК75Е-13</t>
-  </si>
-  <si>
-    <t>КСМД</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Есть</t>
-  </si>
-  <si>
-    <t>Сброс ТО: 0+три последние цифры СН</t>
-  </si>
-  <si>
-    <t>130722</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>181125</t>
-  </si>
-  <si>
-    <t>SA6152</t>
-  </si>
-  <si>
-    <t>SH8147</t>
-  </si>
-  <si>
-    <t>DF5004</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Comaro MD 37-08</t>
-  </si>
-  <si>
-    <t>9016</t>
-  </si>
-  <si>
-    <t>C5N37B424424</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Dali DL-6,0/8RA</t>
-  </si>
-  <si>
-    <t>20-25</t>
-  </si>
-  <si>
-    <t>Сумка</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>Нужен поддон для масла. Воронка и шланг не нужны.</t>
-  </si>
-  <si>
-    <t>290722</t>
-  </si>
-  <si>
-    <t>1261</t>
-  </si>
-  <si>
-    <t>13092610</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Atlas Copco GA45 №1</t>
-  </si>
-  <si>
-    <t>ГП 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> АРI468267</t>
-  </si>
-  <si>
-    <t>Atlas Copco GA45 №2</t>
-  </si>
-  <si>
-    <t>050722</t>
-  </si>
-  <si>
-    <t>7022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> АРI468268</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>15-21</t>
-  </si>
-  <si>
-    <t>300622</t>
-  </si>
-  <si>
-    <t>7776</t>
-  </si>
-  <si>
-    <t>АРI487621</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>ГП 2</t>
-  </si>
-  <si>
-    <t>15-23</t>
-  </si>
-  <si>
-    <t>API869348</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>15-22</t>
-  </si>
-  <si>
-    <t>АРI487620</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Copco G7FF </t>
-  </si>
-  <si>
-    <t>Нов.сгущ.</t>
-  </si>
-  <si>
-    <t>9989</t>
-  </si>
-  <si>
-    <t>Это тоже пульпа</t>
-  </si>
-  <si>
-    <t>ITJ155923</t>
-  </si>
-  <si>
-    <t>XPZ1180</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Atlas Copco GA7FF №1</t>
-  </si>
-  <si>
-    <t>к36</t>
-  </si>
-  <si>
-    <t>1Л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Это тоже пульпа. Сбросить ТО: D6 (Ключик) -&gt; Sure? -&gt; Ok. </t>
-  </si>
-  <si>
-    <t>110722</t>
-  </si>
-  <si>
-    <t>29880</t>
-  </si>
-  <si>
-    <t>CAI720697</t>
-  </si>
-  <si>
-    <t>A9615</t>
-  </si>
-  <si>
-    <t>DF5075</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Atlas Copco GA7FF №2</t>
-  </si>
-  <si>
-    <t>CAI723506</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>S05950321</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Dali  DL-6,0/8RA</t>
-  </si>
-  <si>
-    <t>Пульпа-ная</t>
-  </si>
-  <si>
-    <t>15020109</t>
-  </si>
-  <si>
-    <t>XPA1700</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>KAESER SM13</t>
-  </si>
-  <si>
-    <t>Перегрузка</t>
-  </si>
-  <si>
-    <t>(ПРС - официальное название) БС нужен. Можно без поддона.</t>
   </si>
   <si>
     <t>1139</t>
@@ -1403,12 +1400,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1423,8 +1426,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fillId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1709,7 +1713,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1774,7 +1778,7 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1839,7 +1843,7 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
@@ -1904,7 +1908,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
@@ -1969,7 +1973,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B5" t="s">
@@ -2034,7 +2038,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
@@ -2099,7 +2103,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B7" t="s">
@@ -2164,7 +2168,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B8" t="s">
@@ -2229,7 +2233,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B9" t="s">
@@ -2294,7 +2298,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B10" t="s">
@@ -2359,7 +2363,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B11" t="s">
@@ -2396,16 +2400,16 @@
         <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q11" t="s">
         <v>47</v>
@@ -2424,14 +2428,14 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>95</v>
+      <c r="A12" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>87</v>
@@ -2470,7 +2474,7 @@
         <v>33</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q12" t="s">
         <v>47</v>
@@ -2489,14 +2493,14 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>98</v>
+      <c r="A13" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -2526,16 +2530,16 @@
         <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
         <v>33</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="s">
         <v>47</v>
@@ -2554,14 +2558,14 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>103</v>
+      <c r="A14" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>87</v>
@@ -2591,16 +2595,16 @@
         <v>91</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O14" t="s">
         <v>33</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q14" t="s">
         <v>47</v>
@@ -2619,41 +2623,41 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>108</v>
+      <c r="A15" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
       </c>
       <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
         <v>110</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" t="s">
-        <v>113</v>
       </c>
       <c r="M15" t="s">
         <v>47</v>
@@ -2665,7 +2669,7 @@
         <v>33</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q15" t="s">
         <v>47</v>
@@ -2684,41 +2688,41 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>115</v>
+      <c r="A16" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
         <v>87</v>
       </c>
       <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
         <v>110</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
         <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" t="s">
-        <v>113</v>
       </c>
       <c r="M16" t="s">
         <v>47</v>
@@ -2730,7 +2734,7 @@
         <v>33</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q16" t="s">
         <v>47</v>
@@ -2749,41 +2753,41 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>118</v>
+      <c r="A17" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
         <v>87</v>
       </c>
       <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
         <v>110</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" t="s">
-        <v>113</v>
       </c>
       <c r="M17" t="s">
         <v>47</v>
@@ -2795,7 +2799,7 @@
         <v>33</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q17" t="s">
         <v>47</v>
@@ -2814,41 +2818,41 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>121</v>
+      <c r="A18" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>87</v>
       </c>
       <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" t="s">
-        <v>113</v>
       </c>
       <c r="M18" t="s">
         <v>47</v>
@@ -2860,33 +2864,33 @@
         <v>33</v>
       </c>
       <c r="P18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="Q18" t="s">
-        <v>47</v>
-      </c>
-      <c r="R18" t="s">
-        <v>47</v>
-      </c>
-      <c r="S18" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
       </c>
       <c r="D19" t="s">
         <v>87</v>
@@ -2895,10 +2899,10 @@
         <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
         <v>61</v>
@@ -2913,7 +2917,7 @@
         <v>61</v>
       </c>
       <c r="L19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s">
         <v>47</v>
@@ -2925,33 +2929,33 @@
         <v>33</v>
       </c>
       <c r="P19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>47</v>
-      </c>
-      <c r="R19" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" t="s">
-        <v>47</v>
-      </c>
-      <c r="U19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>132</v>
       </c>
       <c r="D20" t="s">
         <v>87</v>
@@ -2960,10 +2964,10 @@
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -2978,7 +2982,7 @@
         <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s">
         <v>47</v>
@@ -2990,33 +2994,33 @@
         <v>33</v>
       </c>
       <c r="P20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" t="s">
+        <v>47</v>
+      </c>
+      <c r="S20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" t="s">
-        <v>47</v>
-      </c>
-      <c r="U20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" t="s">
-        <v>135</v>
       </c>
       <c r="D21" t="s">
         <v>87</v>
@@ -3025,10 +3029,10 @@
         <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
         <v>61</v>
@@ -3043,7 +3047,7 @@
         <v>61</v>
       </c>
       <c r="L21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s">
         <v>47</v>
@@ -3055,7 +3059,7 @@
         <v>33</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q21" t="s">
         <v>47</v>
@@ -3074,128 +3078,128 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>137</v>
+      <c r="A22" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>139</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" t="s">
         <v>140</v>
       </c>
-      <c r="F22" t="s">
+      <c r="M22" t="s">
         <v>141</v>
       </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>142</v>
-      </c>
-      <c r="M22" t="s">
-        <v>143</v>
-      </c>
-      <c r="N22" t="s">
-        <v>144</v>
       </c>
       <c r="O22" t="s">
         <v>33</v>
       </c>
       <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>144</v>
+      </c>
+      <c r="R22" t="s">
         <v>145</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>146</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="S22" t="s">
-        <v>148</v>
-      </c>
-      <c r="T22" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" t="s">
         <v>150</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" t="s">
-        <v>152</v>
       </c>
       <c r="O23" t="s">
         <v>33</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R23" t="s">
+        <v>145</v>
+      </c>
+      <c r="S23" t="s">
         <v>146</v>
       </c>
-      <c r="R23" t="s">
-        <v>147</v>
-      </c>
-      <c r="S23" t="s">
-        <v>148</v>
-      </c>
       <c r="T23" t="s">
         <v>47</v>
       </c>
@@ -3204,17 +3208,17 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>154</v>
+      <c r="A24" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
         <v>47</v>
@@ -3250,7 +3254,7 @@
         <v>33</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q24" t="s">
         <v>47</v>
@@ -3269,17 +3273,17 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>157</v>
+      <c r="A25" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
         <v>47</v>
@@ -3315,7 +3319,7 @@
         <v>33</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q25" t="s">
         <v>47</v>
@@ -3334,17 +3338,17 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>160</v>
+      <c r="A26" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -3380,7 +3384,7 @@
         <v>33</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q26" t="s">
         <v>47</v>
@@ -3399,26 +3403,26 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>163</v>
+      <c r="A27" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
         <v>164</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
         <v>165</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" t="s">
-        <v>167</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
@@ -3433,48 +3437,48 @@
         <v>21</v>
       </c>
       <c r="L27" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" t="s">
+        <v>167</v>
+      </c>
+      <c r="N27" t="s">
         <v>168</v>
-      </c>
-      <c r="M27" t="s">
-        <v>169</v>
-      </c>
-      <c r="N27" t="s">
-        <v>170</v>
       </c>
       <c r="O27" t="s">
         <v>33</v>
       </c>
       <c r="P27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>170</v>
+      </c>
+      <c r="R27" t="s">
         <v>171</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>172</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="S27" t="s">
-        <v>174</v>
-      </c>
-      <c r="T27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
-        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
@@ -3483,7 +3487,7 @@
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H28" t="s">
         <v>47</v>
@@ -3510,7 +3514,7 @@
         <v>33</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q28" t="s">
         <v>47</v>
@@ -3529,26 +3533,26 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>179</v>
+      <c r="A29" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" t="s">
         <v>180</v>
       </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>181</v>
-      </c>
-      <c r="F29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" t="s">
-        <v>183</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
@@ -3563,19 +3567,19 @@
         <v>67</v>
       </c>
       <c r="L29" t="s">
+        <v>182</v>
+      </c>
+      <c r="M29" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29" t="s">
         <v>184</v>
-      </c>
-      <c r="M29" t="s">
-        <v>185</v>
-      </c>
-      <c r="N29" t="s">
-        <v>186</v>
       </c>
       <c r="O29" t="s">
         <v>33</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q29" t="s">
         <v>47</v>
@@ -3594,63 +3598,63 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>188</v>
+      <c r="A30" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" t="s">
         <v>140</v>
       </c>
-      <c r="F30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" t="s">
-        <v>142</v>
-      </c>
       <c r="M30" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
         <v>33</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q30" t="s">
+        <v>144</v>
+      </c>
+      <c r="R30" t="s">
+        <v>145</v>
+      </c>
+      <c r="S30" t="s">
         <v>146</v>
       </c>
-      <c r="R30" t="s">
-        <v>147</v>
-      </c>
-      <c r="S30" t="s">
-        <v>148</v>
-      </c>
       <c r="T30" t="s">
         <v>47</v>
       </c>
@@ -3659,63 +3663,63 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>166</v>
+      <c r="A31" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="s">
+        <v>191</v>
+      </c>
+      <c r="N31" t="s">
         <v>192</v>
-      </c>
-      <c r="D31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" t="s">
-        <v>193</v>
-      </c>
-      <c r="N31" t="s">
-        <v>194</v>
       </c>
       <c r="O31" t="s">
         <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q31" t="s">
+        <v>144</v>
+      </c>
+      <c r="R31" t="s">
+        <v>145</v>
+      </c>
+      <c r="S31" t="s">
         <v>146</v>
       </c>
-      <c r="R31" t="s">
-        <v>147</v>
-      </c>
-      <c r="S31" t="s">
-        <v>148</v>
-      </c>
       <c r="T31" t="s">
         <v>47</v>
       </c>
@@ -3724,63 +3728,63 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" t="s">
-        <v>196</v>
+      <c r="A32" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" t="s">
+        <v>196</v>
+      </c>
+      <c r="N32" t="s">
         <v>197</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" t="s">
-        <v>198</v>
-      </c>
-      <c r="N32" t="s">
-        <v>199</v>
       </c>
       <c r="O32" t="s">
         <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q32" t="s">
+        <v>144</v>
+      </c>
+      <c r="R32" t="s">
+        <v>145</v>
+      </c>
+      <c r="S32" t="s">
         <v>146</v>
       </c>
-      <c r="R32" t="s">
-        <v>147</v>
-      </c>
-      <c r="S32" t="s">
-        <v>148</v>
-      </c>
       <c r="T32" t="s">
         <v>47</v>
       </c>
@@ -3789,26 +3793,26 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" t="s">
-        <v>201</v>
+      <c r="A33" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
         <v>21</v>
@@ -3823,7 +3827,7 @@
         <v>61</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s">
         <v>47</v>
@@ -3835,17 +3839,17 @@
         <v>33</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q33" t="s">
+        <v>144</v>
+      </c>
+      <c r="R33" t="s">
+        <v>145</v>
+      </c>
+      <c r="S33" t="s">
         <v>146</v>
       </c>
-      <c r="R33" t="s">
-        <v>147</v>
-      </c>
-      <c r="S33" t="s">
-        <v>148</v>
-      </c>
       <c r="T33" t="s">
         <v>47</v>
       </c>
@@ -3854,26 +3858,26 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" t="s">
-        <v>205</v>
+      <c r="A34" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
@@ -3888,7 +3892,7 @@
         <v>61</v>
       </c>
       <c r="L34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s">
         <v>47</v>
@@ -3900,17 +3904,17 @@
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q34" t="s">
+        <v>144</v>
+      </c>
+      <c r="R34" t="s">
+        <v>145</v>
+      </c>
+      <c r="S34" t="s">
         <v>146</v>
       </c>
-      <c r="R34" t="s">
-        <v>147</v>
-      </c>
-      <c r="S34" t="s">
-        <v>148</v>
-      </c>
       <c r="T34" t="s">
         <v>47</v>
       </c>
@@ -3919,17 +3923,17 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>208</v>
+      <c r="A35" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
         <v>54</v>
@@ -3938,7 +3942,7 @@
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -3953,7 +3957,7 @@
         <v>29</v>
       </c>
       <c r="L35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s">
         <v>47</v>
@@ -3965,45 +3969,45 @@
         <v>33</v>
       </c>
       <c r="P35" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>47</v>
+      </c>
+      <c r="R35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" t="s">
+        <v>212</v>
+      </c>
+      <c r="U35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>47</v>
-      </c>
-      <c r="R35" t="s">
-        <v>47</v>
-      </c>
-      <c r="S35" t="s">
-        <v>47</v>
-      </c>
-      <c r="T35" t="s">
-        <v>214</v>
-      </c>
-      <c r="U35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>215</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
         <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
         <v>21</v>
@@ -4012,63 +4016,63 @@
         <v>21</v>
       </c>
       <c r="J36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s">
         <v>39</v>
       </c>
       <c r="L36" t="s">
+        <v>217</v>
+      </c>
+      <c r="M36" t="s">
+        <v>218</v>
+      </c>
+      <c r="N36" t="s">
         <v>219</v>
-      </c>
-      <c r="M36" t="s">
-        <v>220</v>
-      </c>
-      <c r="N36" t="s">
-        <v>221</v>
       </c>
       <c r="O36" t="s">
         <v>33</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R36" t="s">
         <v>52</v>
       </c>
       <c r="S36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="T36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>225</v>
+      <c r="A37" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
         <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H37" t="s">
         <v>21</v>
@@ -4077,13 +4081,13 @@
         <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K37" t="s">
         <v>39</v>
       </c>
       <c r="L37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M37" t="s">
         <v>47</v>
@@ -4095,7 +4099,7 @@
         <v>33</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q37" t="s">
         <v>47</v>
@@ -4107,15 +4111,15 @@
         <v>47</v>
       </c>
       <c r="T37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>228</v>
+      <c r="A38" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -4124,7 +4128,7 @@
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -4160,7 +4164,7 @@
         <v>33</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q38" t="s">
         <v>51</v>
@@ -4179,26 +4183,26 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" t="s">
-        <v>230</v>
+      <c r="A39" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" t="s">
         <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" t="s">
-        <v>183</v>
       </c>
       <c r="H39" t="s">
         <v>21</v>
@@ -4213,7 +4217,7 @@
         <v>67</v>
       </c>
       <c r="L39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s">
         <v>47</v>
@@ -4225,45 +4229,45 @@
         <v>33</v>
       </c>
       <c r="P39" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" t="s">
+        <v>232</v>
+      </c>
+      <c r="U39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" t="s">
-        <v>47</v>
-      </c>
-      <c r="S39" t="s">
-        <v>47</v>
-      </c>
-      <c r="T39" t="s">
-        <v>234</v>
-      </c>
-      <c r="U39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" t="s">
-        <v>235</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E40" t="s">
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
         <v>21</v>
@@ -4278,10 +4282,10 @@
         <v>21</v>
       </c>
       <c r="L40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M40" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="N40" t="s">
         <v>21</v>
@@ -4290,27 +4294,27 @@
         <v>33</v>
       </c>
       <c r="P40" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" t="s">
+        <v>47</v>
+      </c>
+      <c r="T40" t="s">
+        <v>47</v>
+      </c>
+      <c r="U40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>47</v>
-      </c>
-      <c r="R40" t="s">
-        <v>47</v>
-      </c>
-      <c r="S40" t="s">
-        <v>47</v>
-      </c>
-      <c r="T40" t="s">
-        <v>47</v>
-      </c>
-      <c r="U40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" t="s">
-        <v>240</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -4319,7 +4323,7 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
         <v>47</v>
@@ -4355,7 +4359,7 @@
         <v>33</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q41" t="s">
         <v>51</v>
@@ -4374,26 +4378,26 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" t="s">
-        <v>243</v>
+      <c r="A42" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>88</v>
       </c>
       <c r="F42" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" t="s">
         <v>245</v>
-      </c>
-      <c r="G42" t="s">
-        <v>246</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
@@ -4420,45 +4424,45 @@
         <v>33</v>
       </c>
       <c r="P42" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>47</v>
-      </c>
-      <c r="R42" t="s">
-        <v>47</v>
-      </c>
-      <c r="S42" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42" t="s">
-        <v>47</v>
-      </c>
-      <c r="U42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" t="s">
-        <v>248</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>88</v>
       </c>
       <c r="F43" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" t="s">
         <v>245</v>
-      </c>
-      <c r="G43" t="s">
-        <v>246</v>
       </c>
       <c r="H43" t="s">
         <v>21</v>
@@ -4485,45 +4489,45 @@
         <v>33</v>
       </c>
       <c r="P43" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" t="s">
+        <v>47</v>
+      </c>
+      <c r="T43" t="s">
+        <v>47</v>
+      </c>
+      <c r="U43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>47</v>
-      </c>
-      <c r="R43" t="s">
-        <v>47</v>
-      </c>
-      <c r="S43" t="s">
-        <v>47</v>
-      </c>
-      <c r="T43" t="s">
-        <v>47</v>
-      </c>
-      <c r="U43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" t="s">
-        <v>251</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E44" t="s">
         <v>88</v>
       </c>
       <c r="F44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" t="s">
         <v>245</v>
-      </c>
-      <c r="G44" t="s">
-        <v>246</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
@@ -4550,45 +4554,45 @@
         <v>33</v>
       </c>
       <c r="P44" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T44" t="s">
+        <v>47</v>
+      </c>
+      <c r="U44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>47</v>
-      </c>
-      <c r="R44" t="s">
-        <v>47</v>
-      </c>
-      <c r="S44" t="s">
-        <v>47</v>
-      </c>
-      <c r="T44" t="s">
-        <v>47</v>
-      </c>
-      <c r="U44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" t="s">
-        <v>254</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
         <v>88</v>
       </c>
       <c r="F45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" t="s">
         <v>245</v>
-      </c>
-      <c r="G45" t="s">
-        <v>246</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
@@ -4615,45 +4619,45 @@
         <v>33</v>
       </c>
       <c r="P45" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>47</v>
+      </c>
+      <c r="R45" t="s">
+        <v>47</v>
+      </c>
+      <c r="S45" t="s">
+        <v>47</v>
+      </c>
+      <c r="T45" t="s">
+        <v>47</v>
+      </c>
+      <c r="U45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>47</v>
-      </c>
-      <c r="R45" t="s">
-        <v>47</v>
-      </c>
-      <c r="S45" t="s">
-        <v>47</v>
-      </c>
-      <c r="T45" t="s">
-        <v>47</v>
-      </c>
-      <c r="U45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" t="s">
-        <v>257</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
       </c>
       <c r="C46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" t="s">
         <v>258</v>
       </c>
-      <c r="D46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>259</v>
       </c>
-      <c r="F46" t="s">
-        <v>260</v>
-      </c>
       <c r="G46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
         <v>21</v>
@@ -4668,57 +4672,57 @@
         <v>29</v>
       </c>
       <c r="L46" t="s">
+        <v>260</v>
+      </c>
+      <c r="M46" t="s">
         <v>261</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>262</v>
-      </c>
-      <c r="N46" t="s">
-        <v>263</v>
       </c>
       <c r="O46" t="s">
         <v>33</v>
       </c>
       <c r="P46" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" t="s">
+        <v>47</v>
+      </c>
+      <c r="S46" t="s">
+        <v>47</v>
+      </c>
+      <c r="T46" t="s">
         <v>264</v>
       </c>
-      <c r="Q46" t="s">
-        <v>47</v>
-      </c>
-      <c r="R46" t="s">
-        <v>47</v>
-      </c>
-      <c r="S46" t="s">
-        <v>47</v>
-      </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="U46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" t="s">
-        <v>266</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" t="s">
         <v>259</v>
       </c>
-      <c r="F47" t="s">
-        <v>260</v>
-      </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
@@ -4733,7 +4737,7 @@
         <v>29</v>
       </c>
       <c r="L47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s">
         <v>47</v>
@@ -4745,45 +4749,45 @@
         <v>33</v>
       </c>
       <c r="P47" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" t="s">
+        <v>47</v>
+      </c>
+      <c r="S47" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47" t="s">
+        <v>264</v>
+      </c>
+      <c r="U47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>47</v>
-      </c>
-      <c r="R47" t="s">
-        <v>47</v>
-      </c>
-      <c r="S47" t="s">
-        <v>47</v>
-      </c>
-      <c r="T47" t="s">
-        <v>265</v>
-      </c>
-      <c r="U47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" t="s">
-        <v>269</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
+        <v>258</v>
+      </c>
+      <c r="F48" t="s">
         <v>259</v>
       </c>
-      <c r="F48" t="s">
-        <v>260</v>
-      </c>
       <c r="G48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
@@ -4798,7 +4802,7 @@
         <v>29</v>
       </c>
       <c r="L48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s">
         <v>47</v>
@@ -4810,45 +4814,45 @@
         <v>33</v>
       </c>
       <c r="P48" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R48" t="s">
+        <v>47</v>
+      </c>
+      <c r="S48" t="s">
+        <v>47</v>
+      </c>
+      <c r="T48" t="s">
+        <v>264</v>
+      </c>
+      <c r="U48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>47</v>
-      </c>
-      <c r="R48" t="s">
-        <v>47</v>
-      </c>
-      <c r="S48" t="s">
-        <v>47</v>
-      </c>
-      <c r="T48" t="s">
-        <v>265</v>
-      </c>
-      <c r="U48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" t="s">
-        <v>272</v>
       </c>
       <c r="B49" t="s">
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" t="s">
         <v>259</v>
       </c>
-      <c r="F49" t="s">
-        <v>260</v>
-      </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
@@ -4863,57 +4867,57 @@
         <v>29</v>
       </c>
       <c r="L49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M49" t="s">
+        <v>273</v>
+      </c>
+      <c r="N49" t="s">
         <v>274</v>
-      </c>
-      <c r="N49" t="s">
-        <v>275</v>
       </c>
       <c r="O49" t="s">
         <v>33</v>
       </c>
       <c r="P49" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49" t="s">
+        <v>47</v>
+      </c>
+      <c r="T49" t="s">
+        <v>264</v>
+      </c>
+      <c r="U49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>47</v>
-      </c>
-      <c r="R49" t="s">
-        <v>47</v>
-      </c>
-      <c r="S49" t="s">
-        <v>47</v>
-      </c>
-      <c r="T49" t="s">
-        <v>265</v>
-      </c>
-      <c r="U49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" t="s">
-        <v>277</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" t="s">
         <v>259</v>
       </c>
-      <c r="F50" t="s">
-        <v>260</v>
-      </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H50" t="s">
         <v>21</v>
@@ -4928,7 +4932,7 @@
         <v>29</v>
       </c>
       <c r="L50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s">
         <v>47</v>
@@ -4940,45 +4944,45 @@
         <v>33</v>
       </c>
       <c r="P50" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>47</v>
+      </c>
+      <c r="R50" t="s">
+        <v>47</v>
+      </c>
+      <c r="S50" t="s">
+        <v>47</v>
+      </c>
+      <c r="T50" t="s">
+        <v>264</v>
+      </c>
+      <c r="U50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>47</v>
-      </c>
-      <c r="R50" t="s">
-        <v>47</v>
-      </c>
-      <c r="S50" t="s">
-        <v>47</v>
-      </c>
-      <c r="T50" t="s">
-        <v>265</v>
-      </c>
-      <c r="U50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" t="s">
-        <v>280</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
         <v>54</v>
       </c>
       <c r="F51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
@@ -4993,7 +4997,7 @@
         <v>47</v>
       </c>
       <c r="L51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M51" t="s">
         <v>47</v>
@@ -5005,45 +5009,45 @@
         <v>33</v>
       </c>
       <c r="P51" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>47</v>
+      </c>
+      <c r="R51" t="s">
+        <v>47</v>
+      </c>
+      <c r="S51" t="s">
+        <v>47</v>
+      </c>
+      <c r="T51" t="s">
+        <v>47</v>
+      </c>
+      <c r="U51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="Q51" t="s">
-        <v>47</v>
-      </c>
-      <c r="R51" t="s">
-        <v>47</v>
-      </c>
-      <c r="S51" t="s">
-        <v>47</v>
-      </c>
-      <c r="T51" t="s">
-        <v>47</v>
-      </c>
-      <c r="U51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
         <v>283</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" t="s">
         <v>125</v>
       </c>
-      <c r="C52" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" t="s">
-        <v>127</v>
-      </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H52" t="s">
         <v>61</v>
@@ -5058,57 +5062,57 @@
         <v>61</v>
       </c>
       <c r="L52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M52" t="s">
+        <v>284</v>
+      </c>
+      <c r="N52" t="s">
         <v>285</v>
-      </c>
-      <c r="N52" t="s">
-        <v>286</v>
       </c>
       <c r="O52" t="s">
         <v>33</v>
       </c>
       <c r="P52" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>47</v>
+      </c>
+      <c r="R52" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" t="s">
+        <v>47</v>
+      </c>
+      <c r="T52" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="Q52" t="s">
-        <v>47</v>
-      </c>
-      <c r="R52" t="s">
-        <v>47</v>
-      </c>
-      <c r="S52" t="s">
-        <v>47</v>
-      </c>
-      <c r="T52" t="s">
-        <v>47</v>
-      </c>
-      <c r="U52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
         <v>288</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" t="s">
         <v>125</v>
       </c>
-      <c r="C53" t="s">
-        <v>289</v>
-      </c>
-      <c r="D53" t="s">
-        <v>241</v>
-      </c>
-      <c r="E53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" t="s">
-        <v>127</v>
-      </c>
       <c r="G53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
         <v>61</v>
@@ -5123,57 +5127,57 @@
         <v>61</v>
       </c>
       <c r="L53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O53" t="s">
         <v>33</v>
       </c>
       <c r="P53" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>47</v>
+      </c>
+      <c r="R53" t="s">
+        <v>47</v>
+      </c>
+      <c r="S53" t="s">
+        <v>47</v>
+      </c>
+      <c r="T53" t="s">
+        <v>47</v>
+      </c>
+      <c r="U53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="Q53" t="s">
-        <v>47</v>
-      </c>
-      <c r="R53" t="s">
-        <v>47</v>
-      </c>
-      <c r="S53" t="s">
-        <v>47</v>
-      </c>
-      <c r="T53" t="s">
-        <v>47</v>
-      </c>
-      <c r="U53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
         <v>292</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" t="s">
         <v>125</v>
       </c>
-      <c r="C54" t="s">
-        <v>293</v>
-      </c>
-      <c r="D54" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" t="s">
-        <v>127</v>
-      </c>
       <c r="G54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H54" t="s">
         <v>61</v>
@@ -5188,45 +5192,45 @@
         <v>61</v>
       </c>
       <c r="L54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O54" t="s">
         <v>33</v>
       </c>
       <c r="P54" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" t="s">
+        <v>47</v>
+      </c>
+      <c r="S54" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" t="s">
+        <v>47</v>
+      </c>
+      <c r="U54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>47</v>
-      </c>
-      <c r="R54" t="s">
-        <v>47</v>
-      </c>
-      <c r="S54" t="s">
-        <v>47</v>
-      </c>
-      <c r="T54" t="s">
-        <v>47</v>
-      </c>
-      <c r="U54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
-      <c r="A55" t="s">
-        <v>296</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D55" t="s">
         <v>87</v>
@@ -5262,36 +5266,36 @@
         <v>47</v>
       </c>
       <c r="O55" t="s">
+        <v>297</v>
+      </c>
+      <c r="P55" t="s">
         <v>298</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
+        <v>47</v>
+      </c>
+      <c r="R55" t="s">
+        <v>47</v>
+      </c>
+      <c r="S55" t="s">
+        <v>47</v>
+      </c>
+      <c r="T55" t="s">
+        <v>47</v>
+      </c>
+      <c r="U55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>47</v>
-      </c>
-      <c r="R55" t="s">
-        <v>47</v>
-      </c>
-      <c r="S55" t="s">
-        <v>47</v>
-      </c>
-      <c r="T55" t="s">
-        <v>47</v>
-      </c>
-      <c r="U55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
-      <c r="A56" t="s">
-        <v>300</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D56" t="s">
         <v>87</v>
@@ -5300,7 +5304,7 @@
         <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -5315,158 +5319,158 @@
         <v>21</v>
       </c>
       <c r="K56" t="s">
+        <v>302</v>
+      </c>
+      <c r="L56" t="s">
         <v>303</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>304</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>305</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P56" t="s">
         <v>306</v>
       </c>
-      <c r="O56" t="s">
-        <v>298</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
+        <v>47</v>
+      </c>
+      <c r="R56" t="s">
+        <v>47</v>
+      </c>
+      <c r="S56" t="s">
+        <v>47</v>
+      </c>
+      <c r="T56" t="s">
+        <v>47</v>
+      </c>
+      <c r="U56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>47</v>
-      </c>
-      <c r="R56" t="s">
-        <v>47</v>
-      </c>
-      <c r="S56" t="s">
-        <v>47</v>
-      </c>
-      <c r="T56" t="s">
-        <v>47</v>
-      </c>
-      <c r="U56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" t="s">
-        <v>308</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s">
         <v>87</v>
       </c>
       <c r="E57" t="s">
+        <v>309</v>
+      </c>
+      <c r="F57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" t="s">
         <v>310</v>
       </c>
-      <c r="F57" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" t="s">
         <v>311</v>
       </c>
-      <c r="H57" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" t="s">
-        <v>61</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>312</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>313</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
+        <v>297</v>
+      </c>
+      <c r="P57" t="s">
         <v>314</v>
       </c>
-      <c r="O57" t="s">
-        <v>298</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
+        <v>47</v>
+      </c>
+      <c r="R57" t="s">
+        <v>47</v>
+      </c>
+      <c r="S57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T57" t="s">
+        <v>47</v>
+      </c>
+      <c r="U57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>47</v>
-      </c>
-      <c r="R57" t="s">
-        <v>47</v>
-      </c>
-      <c r="S57" t="s">
-        <v>47</v>
-      </c>
-      <c r="T57" t="s">
-        <v>47</v>
-      </c>
-      <c r="U57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" t="s">
-        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" t="s">
         <v>317</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>318</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
         <v>319</v>
       </c>
-      <c r="F58" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" t="s">
-        <v>303</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>320</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>321</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
+        <v>297</v>
+      </c>
+      <c r="P58" t="s">
         <v>322</v>
       </c>
-      <c r="O58" t="s">
-        <v>298</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>323</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>324</v>
-      </c>
-      <c r="R58" t="s">
-        <v>325</v>
       </c>
       <c r="S58" t="s">
         <v>53</v>
@@ -5479,26 +5483,26 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" t="s">
-        <v>326</v>
+      <c r="A59" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F59" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" t="s">
         <v>328</v>
-      </c>
-      <c r="G59" t="s">
-        <v>329</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
@@ -5513,25 +5517,25 @@
         <v>39</v>
       </c>
       <c r="L59" t="s">
+        <v>329</v>
+      </c>
+      <c r="M59" t="s">
+        <v>320</v>
+      </c>
+      <c r="N59" t="s">
         <v>330</v>
       </c>
-      <c r="M59" t="s">
-        <v>321</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
+        <v>297</v>
+      </c>
+      <c r="P59" t="s">
         <v>331</v>
       </c>
-      <c r="O59" t="s">
-        <v>298</v>
-      </c>
-      <c r="P59" t="s">
-        <v>332</v>
-      </c>
       <c r="Q59" t="s">
+        <v>323</v>
+      </c>
+      <c r="R59" t="s">
         <v>324</v>
-      </c>
-      <c r="R59" t="s">
-        <v>325</v>
       </c>
       <c r="S59" t="s">
         <v>53</v>
@@ -5544,14 +5548,14 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
         <v>333</v>
-      </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
-        <v>334</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
@@ -5578,57 +5582,57 @@
         <v>47</v>
       </c>
       <c r="L60" t="s">
+        <v>334</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" t="s">
+        <v>297</v>
+      </c>
+      <c r="P60" t="s">
         <v>335</v>
       </c>
-      <c r="M60" t="s">
-        <v>47</v>
-      </c>
-      <c r="N60" t="s">
-        <v>47</v>
-      </c>
-      <c r="O60" t="s">
-        <v>298</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
+        <v>47</v>
+      </c>
+      <c r="R60" t="s">
+        <v>47</v>
+      </c>
+      <c r="S60" t="s">
+        <v>47</v>
+      </c>
+      <c r="T60" t="s">
+        <v>47</v>
+      </c>
+      <c r="U60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>47</v>
-      </c>
-      <c r="R60" t="s">
-        <v>47</v>
-      </c>
-      <c r="S60" t="s">
-        <v>47</v>
-      </c>
-      <c r="T60" t="s">
-        <v>47</v>
-      </c>
-      <c r="U60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
-      <c r="A61" t="s">
-        <v>337</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
       </c>
       <c r="C61" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61" t="s">
         <v>338</v>
       </c>
-      <c r="D61" t="s">
-        <v>339</v>
-      </c>
       <c r="E61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
         <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H61" t="s">
         <v>21</v>
@@ -5643,57 +5647,57 @@
         <v>61</v>
       </c>
       <c r="L61" t="s">
+        <v>339</v>
+      </c>
+      <c r="M61" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" t="s">
         <v>340</v>
       </c>
-      <c r="M61" t="s">
-        <v>47</v>
-      </c>
-      <c r="N61" t="s">
-        <v>47</v>
-      </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>341</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
+        <v>144</v>
+      </c>
+      <c r="R61" t="s">
+        <v>145</v>
+      </c>
+      <c r="S61" t="s">
         <v>342</v>
       </c>
-      <c r="Q61" t="s">
-        <v>146</v>
-      </c>
-      <c r="R61" t="s">
-        <v>147</v>
-      </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
+        <v>47</v>
+      </c>
+      <c r="U61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="T61" t="s">
-        <v>47</v>
-      </c>
-      <c r="U61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
-      <c r="A62" t="s">
-        <v>344</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F62" t="s">
         <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H62" t="s">
         <v>21</v>
@@ -5708,54 +5712,54 @@
         <v>61</v>
       </c>
       <c r="L62" t="s">
+        <v>339</v>
+      </c>
+      <c r="M62" t="s">
+        <v>345</v>
+      </c>
+      <c r="N62" t="s">
+        <v>346</v>
+      </c>
+      <c r="O62" t="s">
         <v>340</v>
       </c>
-      <c r="M62" t="s">
-        <v>346</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>347</v>
       </c>
-      <c r="O62" t="s">
-        <v>341</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
+        <v>144</v>
+      </c>
+      <c r="R62" t="s">
+        <v>145</v>
+      </c>
+      <c r="S62" t="s">
+        <v>342</v>
+      </c>
+      <c r="T62" t="s">
+        <v>47</v>
+      </c>
+      <c r="U62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>146</v>
-      </c>
-      <c r="R62" t="s">
-        <v>147</v>
-      </c>
-      <c r="S62" t="s">
-        <v>343</v>
-      </c>
-      <c r="T62" t="s">
-        <v>47</v>
-      </c>
-      <c r="U62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
-      <c r="A63" t="s">
-        <v>349</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" t="s">
         <v>350</v>
       </c>
-      <c r="D63" t="s">
-        <v>351</v>
-      </c>
       <c r="E63" t="s">
         <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
         <v>27</v>
@@ -5782,45 +5786,45 @@
         <v>47</v>
       </c>
       <c r="O63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P63" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>47</v>
+      </c>
+      <c r="R63" t="s">
+        <v>47</v>
+      </c>
+      <c r="S63" t="s">
+        <v>47</v>
+      </c>
+      <c r="T63" t="s">
+        <v>47</v>
+      </c>
+      <c r="U63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>47</v>
-      </c>
-      <c r="R63" t="s">
-        <v>47</v>
-      </c>
-      <c r="S63" t="s">
-        <v>47</v>
-      </c>
-      <c r="T63" t="s">
-        <v>47</v>
-      </c>
-      <c r="U63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
-      <c r="A64" t="s">
-        <v>353</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D64" t="s">
         <v>350</v>
       </c>
-      <c r="D64" t="s">
-        <v>351</v>
-      </c>
       <c r="E64" t="s">
         <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -5847,178 +5851,178 @@
         <v>47</v>
       </c>
       <c r="O64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P64" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>47</v>
+      </c>
+      <c r="R64" t="s">
+        <v>47</v>
+      </c>
+      <c r="S64" t="s">
+        <v>47</v>
+      </c>
+      <c r="T64" t="s">
+        <v>47</v>
+      </c>
+      <c r="U64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="Q64" t="s">
-        <v>47</v>
-      </c>
-      <c r="R64" t="s">
-        <v>47</v>
-      </c>
-      <c r="S64" t="s">
-        <v>47</v>
-      </c>
-      <c r="T64" t="s">
-        <v>47</v>
-      </c>
-      <c r="U64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
         <v>355</v>
       </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E65" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>47</v>
+      </c>
+      <c r="J65" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" t="s">
+        <v>47</v>
+      </c>
+      <c r="M65" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" t="s">
+        <v>340</v>
+      </c>
+      <c r="P65" t="s">
         <v>356</v>
       </c>
-      <c r="D65" t="s">
-        <v>351</v>
-      </c>
-      <c r="E65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" t="s">
-        <v>47</v>
-      </c>
-      <c r="J65" t="s">
-        <v>47</v>
-      </c>
-      <c r="K65" t="s">
-        <v>47</v>
-      </c>
-      <c r="L65" t="s">
-        <v>47</v>
-      </c>
-      <c r="M65" t="s">
-        <v>47</v>
-      </c>
-      <c r="N65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O65" t="s">
-        <v>341</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
+        <v>47</v>
+      </c>
+      <c r="R65" t="s">
+        <v>47</v>
+      </c>
+      <c r="S65" t="s">
+        <v>47</v>
+      </c>
+      <c r="T65" t="s">
+        <v>47</v>
+      </c>
+      <c r="U65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>47</v>
-      </c>
-      <c r="R65" t="s">
-        <v>47</v>
-      </c>
-      <c r="S65" t="s">
-        <v>47</v>
-      </c>
-      <c r="T65" t="s">
-        <v>47</v>
-      </c>
-      <c r="U65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
-      <c r="A66" t="s">
-        <v>358</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
       <c r="C66" t="s">
+        <v>358</v>
+      </c>
+      <c r="D66" t="s">
         <v>359</v>
-      </c>
-      <c r="D66" t="s">
-        <v>360</v>
       </c>
       <c r="E66" t="s">
         <v>85</v>
       </c>
       <c r="F66" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" t="s">
+        <v>302</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>47</v>
+      </c>
+      <c r="J66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66" t="s">
+        <v>47</v>
+      </c>
+      <c r="L66" t="s">
         <v>361</v>
       </c>
-      <c r="G66" t="s">
-        <v>303</v>
-      </c>
-      <c r="H66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" t="s">
-        <v>47</v>
-      </c>
-      <c r="J66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K66" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
+        <v>47</v>
+      </c>
+      <c r="N66" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" t="s">
+        <v>340</v>
+      </c>
+      <c r="P66" t="s">
         <v>362</v>
       </c>
-      <c r="M66" t="s">
-        <v>47</v>
-      </c>
-      <c r="N66" t="s">
-        <v>47</v>
-      </c>
-      <c r="O66" t="s">
-        <v>341</v>
-      </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
+        <v>47</v>
+      </c>
+      <c r="R66" t="s">
+        <v>47</v>
+      </c>
+      <c r="S66" t="s">
+        <v>47</v>
+      </c>
+      <c r="T66" t="s">
+        <v>47</v>
+      </c>
+      <c r="U66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>47</v>
-      </c>
-      <c r="R66" t="s">
-        <v>47</v>
-      </c>
-      <c r="S66" t="s">
-        <v>47</v>
-      </c>
-      <c r="T66" t="s">
-        <v>47</v>
-      </c>
-      <c r="U66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" t="s">
-        <v>364</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
       <c r="C67" t="s">
+        <v>364</v>
+      </c>
+      <c r="D67" t="s">
         <v>365</v>
       </c>
-      <c r="D67" t="s">
-        <v>366</v>
-      </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F67" t="s">
         <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H67" t="s">
         <v>21</v>
@@ -6033,252 +6037,252 @@
         <v>61</v>
       </c>
       <c r="L67" t="s">
+        <v>339</v>
+      </c>
+      <c r="M67" t="s">
+        <v>366</v>
+      </c>
+      <c r="N67" t="s">
+        <v>367</v>
+      </c>
+      <c r="O67" t="s">
         <v>340</v>
       </c>
-      <c r="M67" t="s">
-        <v>367</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>368</v>
       </c>
-      <c r="O67" t="s">
-        <v>341</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
+        <v>144</v>
+      </c>
+      <c r="R67" t="s">
+        <v>145</v>
+      </c>
+      <c r="S67" t="s">
+        <v>342</v>
+      </c>
+      <c r="T67" t="s">
+        <v>47</v>
+      </c>
+      <c r="U67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="Q67" t="s">
-        <v>146</v>
-      </c>
-      <c r="R67" t="s">
-        <v>147</v>
-      </c>
-      <c r="S67" t="s">
-        <v>343</v>
-      </c>
-      <c r="T67" t="s">
-        <v>47</v>
-      </c>
-      <c r="U67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
         <v>370</v>
       </c>
-      <c r="B68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>365</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K68" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" t="s">
         <v>371</v>
       </c>
-      <c r="D68" t="s">
-        <v>366</v>
-      </c>
-      <c r="E68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>47</v>
-      </c>
-      <c r="G68" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" t="s">
-        <v>47</v>
-      </c>
-      <c r="J68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K68" t="s">
-        <v>47</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
+        <v>47</v>
+      </c>
+      <c r="N68" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" t="s">
+        <v>340</v>
+      </c>
+      <c r="P68" t="s">
         <v>372</v>
       </c>
-      <c r="M68" t="s">
-        <v>47</v>
-      </c>
-      <c r="N68" t="s">
-        <v>47</v>
-      </c>
-      <c r="O68" t="s">
-        <v>341</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
+        <v>47</v>
+      </c>
+      <c r="R68" t="s">
+        <v>47</v>
+      </c>
+      <c r="S68" t="s">
+        <v>47</v>
+      </c>
+      <c r="T68" t="s">
+        <v>47</v>
+      </c>
+      <c r="U68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>47</v>
-      </c>
-      <c r="R68" t="s">
-        <v>47</v>
-      </c>
-      <c r="S68" t="s">
-        <v>47</v>
-      </c>
-      <c r="T68" t="s">
-        <v>47</v>
-      </c>
-      <c r="U68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" t="s">
-        <v>374</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" t="s">
         <v>375</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>376</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>377</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>378</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" t="s">
         <v>379</v>
       </c>
-      <c r="H69" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" t="s">
-        <v>61</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69" t="s">
         <v>380</v>
       </c>
-      <c r="M69" t="s">
-        <v>47</v>
-      </c>
-      <c r="N69" t="s">
-        <v>47</v>
-      </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>381</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
+        <v>47</v>
+      </c>
+      <c r="R69" t="s">
+        <v>47</v>
+      </c>
+      <c r="S69" t="s">
+        <v>47</v>
+      </c>
+      <c r="T69" t="s">
+        <v>47</v>
+      </c>
+      <c r="U69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>47</v>
-      </c>
-      <c r="R69" t="s">
-        <v>47</v>
-      </c>
-      <c r="S69" t="s">
-        <v>47</v>
-      </c>
-      <c r="T69" t="s">
-        <v>47</v>
-      </c>
-      <c r="U69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" t="s">
-        <v>383</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
       </c>
       <c r="C70" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" t="s">
+        <v>375</v>
+      </c>
+      <c r="E70" t="s">
+        <v>376</v>
+      </c>
+      <c r="F70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G70" t="s">
         <v>384</v>
       </c>
-      <c r="D70" t="s">
-        <v>376</v>
-      </c>
-      <c r="E70" t="s">
-        <v>377</v>
-      </c>
-      <c r="F70" t="s">
-        <v>378</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" t="s">
+        <v>379</v>
+      </c>
+      <c r="M70" t="s">
+        <v>47</v>
+      </c>
+      <c r="N70" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" t="s">
+        <v>380</v>
+      </c>
+      <c r="P70" t="s">
         <v>385</v>
       </c>
-      <c r="H70" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" t="s">
-        <v>61</v>
-      </c>
-      <c r="L70" t="s">
-        <v>380</v>
-      </c>
-      <c r="M70" t="s">
-        <v>47</v>
-      </c>
-      <c r="N70" t="s">
-        <v>47</v>
-      </c>
-      <c r="O70" t="s">
-        <v>381</v>
-      </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
+        <v>47</v>
+      </c>
+      <c r="R70" t="s">
+        <v>47</v>
+      </c>
+      <c r="S70" t="s">
+        <v>47</v>
+      </c>
+      <c r="T70" t="s">
+        <v>47</v>
+      </c>
+      <c r="U70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>47</v>
-      </c>
-      <c r="R70" t="s">
-        <v>47</v>
-      </c>
-      <c r="S70" t="s">
-        <v>47</v>
-      </c>
-      <c r="T70" t="s">
-        <v>47</v>
-      </c>
-      <c r="U70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
-      <c r="A71" t="s">
-        <v>387</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
       </c>
       <c r="C71" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" t="s">
         <v>388</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>389</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>390</v>
       </c>
-      <c r="F71" t="s">
-        <v>391</v>
-      </c>
       <c r="G71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
@@ -6293,864 +6297,864 @@
         <v>28</v>
       </c>
       <c r="L71" t="s">
+        <v>391</v>
+      </c>
+      <c r="M71" t="s">
         <v>392</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>393</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
+        <v>380</v>
+      </c>
+      <c r="P71" t="s">
         <v>394</v>
       </c>
-      <c r="O71" t="s">
-        <v>381</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>395</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>396</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
+        <v>172</v>
+      </c>
+      <c r="T71" t="s">
         <v>397</v>
       </c>
-      <c r="S71" t="s">
-        <v>174</v>
-      </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="U71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
-      <c r="A72" t="s">
-        <v>399</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D72" t="s">
+        <v>399</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" t="s">
+        <v>175</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" t="s">
+        <v>47</v>
+      </c>
+      <c r="M72" t="s">
+        <v>47</v>
+      </c>
+      <c r="N72" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" t="s">
+        <v>380</v>
+      </c>
+      <c r="P72" t="s">
         <v>400</v>
       </c>
-      <c r="E72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" t="s">
-        <v>177</v>
-      </c>
-      <c r="H72" t="s">
-        <v>47</v>
-      </c>
-      <c r="I72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J72" t="s">
-        <v>47</v>
-      </c>
-      <c r="K72" t="s">
-        <v>47</v>
-      </c>
-      <c r="L72" t="s">
-        <v>47</v>
-      </c>
-      <c r="M72" t="s">
-        <v>47</v>
-      </c>
-      <c r="N72" t="s">
-        <v>47</v>
-      </c>
-      <c r="O72" t="s">
-        <v>381</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
+        <v>47</v>
+      </c>
+      <c r="R72" t="s">
+        <v>47</v>
+      </c>
+      <c r="S72" t="s">
+        <v>47</v>
+      </c>
+      <c r="T72" t="s">
+        <v>47</v>
+      </c>
+      <c r="U72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>47</v>
-      </c>
-      <c r="R72" t="s">
-        <v>47</v>
-      </c>
-      <c r="S72" t="s">
-        <v>47</v>
-      </c>
-      <c r="T72" t="s">
-        <v>47</v>
-      </c>
-      <c r="U72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
-      <c r="A73" t="s">
-        <v>402</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
       </c>
       <c r="C73" t="s">
+        <v>402</v>
+      </c>
+      <c r="D73" t="s">
         <v>403</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" t="s">
         <v>404</v>
       </c>
-      <c r="E73" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" t="s">
+        <v>47</v>
+      </c>
+      <c r="M73" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" t="s">
+        <v>380</v>
+      </c>
+      <c r="P73" t="s">
         <v>405</v>
       </c>
-      <c r="H73" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" t="s">
-        <v>61</v>
-      </c>
-      <c r="L73" t="s">
-        <v>47</v>
-      </c>
-      <c r="M73" t="s">
-        <v>47</v>
-      </c>
-      <c r="N73" t="s">
-        <v>47</v>
-      </c>
-      <c r="O73" t="s">
-        <v>381</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
+        <v>47</v>
+      </c>
+      <c r="R73" t="s">
+        <v>47</v>
+      </c>
+      <c r="S73" t="s">
+        <v>47</v>
+      </c>
+      <c r="T73" t="s">
+        <v>47</v>
+      </c>
+      <c r="U73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>47</v>
-      </c>
-      <c r="R73" t="s">
-        <v>47</v>
-      </c>
-      <c r="S73" t="s">
-        <v>47</v>
-      </c>
-      <c r="T73" t="s">
-        <v>47</v>
-      </c>
-      <c r="U73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
-      <c r="A74" t="s">
-        <v>407</v>
       </c>
       <c r="B74" t="s">
         <v>22</v>
       </c>
       <c r="C74" t="s">
+        <v>407</v>
+      </c>
+      <c r="D74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E74" t="s">
         <v>408</v>
       </c>
-      <c r="D74" t="s">
-        <v>404</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>409</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" t="s">
         <v>411</v>
       </c>
-      <c r="H74" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" t="s">
-        <v>61</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>412</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>413</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
+        <v>380</v>
+      </c>
+      <c r="P74" t="s">
         <v>414</v>
       </c>
-      <c r="O74" t="s">
-        <v>381</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
+        <v>47</v>
+      </c>
+      <c r="R74" t="s">
+        <v>47</v>
+      </c>
+      <c r="S74" t="s">
+        <v>47</v>
+      </c>
+      <c r="T74" t="s">
+        <v>47</v>
+      </c>
+      <c r="U74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>47</v>
-      </c>
-      <c r="R74" t="s">
-        <v>47</v>
-      </c>
-      <c r="S74" t="s">
-        <v>47</v>
-      </c>
-      <c r="T74" t="s">
-        <v>47</v>
-      </c>
-      <c r="U74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
-      <c r="A75" t="s">
-        <v>416</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
       </c>
       <c r="C75" t="s">
+        <v>416</v>
+      </c>
+      <c r="D75" t="s">
+        <v>403</v>
+      </c>
+      <c r="E75" t="s">
+        <v>408</v>
+      </c>
+      <c r="F75" t="s">
+        <v>409</v>
+      </c>
+      <c r="G75" t="s">
+        <v>410</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L75" t="s">
+        <v>411</v>
+      </c>
+      <c r="M75" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" t="s">
+        <v>380</v>
+      </c>
+      <c r="P75" t="s">
         <v>417</v>
       </c>
-      <c r="D75" t="s">
-        <v>404</v>
-      </c>
-      <c r="E75" t="s">
-        <v>409</v>
-      </c>
-      <c r="F75" t="s">
-        <v>410</v>
-      </c>
-      <c r="G75" t="s">
-        <v>411</v>
-      </c>
-      <c r="H75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" t="s">
-        <v>61</v>
-      </c>
-      <c r="L75" t="s">
-        <v>412</v>
-      </c>
-      <c r="M75" t="s">
-        <v>47</v>
-      </c>
-      <c r="N75" t="s">
-        <v>47</v>
-      </c>
-      <c r="O75" t="s">
-        <v>381</v>
-      </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
+        <v>47</v>
+      </c>
+      <c r="R75" t="s">
+        <v>47</v>
+      </c>
+      <c r="S75" t="s">
+        <v>47</v>
+      </c>
+      <c r="T75" t="s">
+        <v>47</v>
+      </c>
+      <c r="U75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>47</v>
-      </c>
-      <c r="R75" t="s">
-        <v>47</v>
-      </c>
-      <c r="S75" t="s">
-        <v>47</v>
-      </c>
-      <c r="T75" t="s">
-        <v>47</v>
-      </c>
-      <c r="U75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
-      <c r="A76" t="s">
-        <v>419</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
       </c>
       <c r="C76" t="s">
+        <v>419</v>
+      </c>
+      <c r="D76" t="s">
         <v>420</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>421</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" t="s">
         <v>422</v>
       </c>
-      <c r="F76" t="s">
-        <v>182</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" t="s">
         <v>423</v>
       </c>
-      <c r="H76" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
+        <v>47</v>
+      </c>
+      <c r="N76" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" t="s">
+        <v>420</v>
+      </c>
+      <c r="P76" t="s">
         <v>424</v>
       </c>
-      <c r="M76" t="s">
-        <v>47</v>
-      </c>
-      <c r="N76" t="s">
-        <v>47</v>
-      </c>
-      <c r="O76" t="s">
-        <v>421</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
+        <v>47</v>
+      </c>
+      <c r="R76" t="s">
+        <v>47</v>
+      </c>
+      <c r="S76" t="s">
+        <v>47</v>
+      </c>
+      <c r="T76" t="s">
+        <v>47</v>
+      </c>
+      <c r="U76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>47</v>
-      </c>
-      <c r="R76" t="s">
-        <v>47</v>
-      </c>
-      <c r="S76" t="s">
-        <v>47</v>
-      </c>
-      <c r="T76" t="s">
-        <v>47</v>
-      </c>
-      <c r="U76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
-      <c r="A77" t="s">
-        <v>426</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
       </c>
       <c r="C77" t="s">
+        <v>426</v>
+      </c>
+      <c r="D77" t="s">
         <v>427</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>47</v>
+      </c>
+      <c r="J77" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" t="s">
+        <v>47</v>
+      </c>
+      <c r="L77" t="s">
+        <v>47</v>
+      </c>
+      <c r="M77" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" t="s">
         <v>428</v>
       </c>
-      <c r="E77" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" t="s">
-        <v>47</v>
-      </c>
-      <c r="I77" t="s">
-        <v>47</v>
-      </c>
-      <c r="J77" t="s">
-        <v>47</v>
-      </c>
-      <c r="K77" t="s">
-        <v>47</v>
-      </c>
-      <c r="L77" t="s">
-        <v>47</v>
-      </c>
-      <c r="M77" t="s">
-        <v>47</v>
-      </c>
-      <c r="N77" t="s">
-        <v>47</v>
-      </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>429</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
+        <v>47</v>
+      </c>
+      <c r="R77" t="s">
+        <v>47</v>
+      </c>
+      <c r="S77" t="s">
+        <v>47</v>
+      </c>
+      <c r="T77" t="s">
+        <v>47</v>
+      </c>
+      <c r="U77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>47</v>
-      </c>
-      <c r="R77" t="s">
-        <v>47</v>
-      </c>
-      <c r="S77" t="s">
-        <v>47</v>
-      </c>
-      <c r="T77" t="s">
-        <v>47</v>
-      </c>
-      <c r="U77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
-      <c r="A78" t="s">
-        <v>431</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
       </c>
       <c r="C78" t="s">
+        <v>431</v>
+      </c>
+      <c r="D78" t="s">
         <v>432</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>47</v>
+      </c>
+      <c r="J78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K78" t="s">
+        <v>47</v>
+      </c>
+      <c r="L78" t="s">
+        <v>47</v>
+      </c>
+      <c r="M78" t="s">
+        <v>47</v>
+      </c>
+      <c r="N78" t="s">
+        <v>47</v>
+      </c>
+      <c r="O78" t="s">
+        <v>428</v>
+      </c>
+      <c r="P78" t="s">
         <v>433</v>
       </c>
-      <c r="E78" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" t="s">
-        <v>47</v>
-      </c>
-      <c r="G78" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" t="s">
-        <v>47</v>
-      </c>
-      <c r="I78" t="s">
-        <v>47</v>
-      </c>
-      <c r="J78" t="s">
-        <v>47</v>
-      </c>
-      <c r="K78" t="s">
-        <v>47</v>
-      </c>
-      <c r="L78" t="s">
-        <v>47</v>
-      </c>
-      <c r="M78" t="s">
-        <v>47</v>
-      </c>
-      <c r="N78" t="s">
-        <v>47</v>
-      </c>
-      <c r="O78" t="s">
-        <v>429</v>
-      </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
+        <v>47</v>
+      </c>
+      <c r="R78" t="s">
+        <v>47</v>
+      </c>
+      <c r="S78" t="s">
+        <v>47</v>
+      </c>
+      <c r="T78" t="s">
+        <v>47</v>
+      </c>
+      <c r="U78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>47</v>
-      </c>
-      <c r="R78" t="s">
-        <v>47</v>
-      </c>
-      <c r="S78" t="s">
-        <v>47</v>
-      </c>
-      <c r="T78" t="s">
-        <v>47</v>
-      </c>
-      <c r="U78" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
-      <c r="A79" t="s">
-        <v>435</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
       </c>
       <c r="C79" t="s">
+        <v>435</v>
+      </c>
+      <c r="D79" t="s">
+        <v>432</v>
+      </c>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" t="s">
+        <v>47</v>
+      </c>
+      <c r="L79" t="s">
+        <v>47</v>
+      </c>
+      <c r="M79" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79" t="s">
+        <v>47</v>
+      </c>
+      <c r="O79" t="s">
+        <v>428</v>
+      </c>
+      <c r="P79" t="s">
         <v>436</v>
       </c>
-      <c r="D79" t="s">
-        <v>433</v>
-      </c>
-      <c r="E79" t="s">
-        <v>47</v>
-      </c>
-      <c r="F79" t="s">
-        <v>47</v>
-      </c>
-      <c r="G79" t="s">
-        <v>47</v>
-      </c>
-      <c r="H79" t="s">
-        <v>47</v>
-      </c>
-      <c r="I79" t="s">
-        <v>47</v>
-      </c>
-      <c r="J79" t="s">
-        <v>47</v>
-      </c>
-      <c r="K79" t="s">
-        <v>47</v>
-      </c>
-      <c r="L79" t="s">
-        <v>47</v>
-      </c>
-      <c r="M79" t="s">
-        <v>47</v>
-      </c>
-      <c r="N79" t="s">
-        <v>47</v>
-      </c>
-      <c r="O79" t="s">
-        <v>429</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
+        <v>47</v>
+      </c>
+      <c r="R79" t="s">
+        <v>47</v>
+      </c>
+      <c r="S79" t="s">
+        <v>47</v>
+      </c>
+      <c r="T79" t="s">
+        <v>47</v>
+      </c>
+      <c r="U79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>47</v>
-      </c>
-      <c r="R79" t="s">
-        <v>47</v>
-      </c>
-      <c r="S79" t="s">
-        <v>47</v>
-      </c>
-      <c r="T79" t="s">
-        <v>47</v>
-      </c>
-      <c r="U79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
-      <c r="A80" t="s">
-        <v>438</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
       </c>
       <c r="C80" t="s">
+        <v>438</v>
+      </c>
+      <c r="D80" t="s">
         <v>439</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s">
+        <v>47</v>
+      </c>
+      <c r="K80" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" t="s">
+        <v>47</v>
+      </c>
+      <c r="M80" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80" t="s">
+        <v>47</v>
+      </c>
+      <c r="O80" t="s">
+        <v>428</v>
+      </c>
+      <c r="P80" t="s">
         <v>440</v>
       </c>
-      <c r="E80" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" t="s">
-        <v>47</v>
-      </c>
-      <c r="H80" t="s">
-        <v>47</v>
-      </c>
-      <c r="I80" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80" t="s">
-        <v>47</v>
-      </c>
-      <c r="K80" t="s">
-        <v>47</v>
-      </c>
-      <c r="L80" t="s">
-        <v>47</v>
-      </c>
-      <c r="M80" t="s">
-        <v>47</v>
-      </c>
-      <c r="N80" t="s">
-        <v>47</v>
-      </c>
-      <c r="O80" t="s">
-        <v>429</v>
-      </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
+        <v>47</v>
+      </c>
+      <c r="R80" t="s">
+        <v>47</v>
+      </c>
+      <c r="S80" t="s">
+        <v>47</v>
+      </c>
+      <c r="T80" t="s">
+        <v>47</v>
+      </c>
+      <c r="U80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>47</v>
-      </c>
-      <c r="R80" t="s">
-        <v>47</v>
-      </c>
-      <c r="S80" t="s">
-        <v>47</v>
-      </c>
-      <c r="T80" t="s">
-        <v>47</v>
-      </c>
-      <c r="U80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="A81" t="s">
-        <v>442</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
       </c>
       <c r="C81" t="s">
+        <v>442</v>
+      </c>
+      <c r="D81" t="s">
         <v>443</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>47</v>
+      </c>
+      <c r="G81" t="s">
         <v>444</v>
       </c>
-      <c r="E81" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" t="s">
         <v>445</v>
       </c>
-      <c r="H81" t="s">
-        <v>47</v>
-      </c>
-      <c r="I81" t="s">
-        <v>47</v>
-      </c>
-      <c r="J81" t="s">
-        <v>47</v>
-      </c>
-      <c r="K81" t="s">
-        <v>47</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
+        <v>47</v>
+      </c>
+      <c r="N81" t="s">
+        <v>47</v>
+      </c>
+      <c r="O81" t="s">
         <v>446</v>
       </c>
-      <c r="M81" t="s">
-        <v>47</v>
-      </c>
-      <c r="N81" t="s">
-        <v>47</v>
-      </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>447</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
+        <v>47</v>
+      </c>
+      <c r="R81" t="s">
+        <v>47</v>
+      </c>
+      <c r="S81" t="s">
+        <v>47</v>
+      </c>
+      <c r="T81" t="s">
+        <v>47</v>
+      </c>
+      <c r="U81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>47</v>
-      </c>
-      <c r="R81" t="s">
-        <v>47</v>
-      </c>
-      <c r="S81" t="s">
-        <v>47</v>
-      </c>
-      <c r="T81" t="s">
-        <v>47</v>
-      </c>
-      <c r="U81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
-      <c r="A82" t="s">
-        <v>449</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D82" t="s">
+        <v>449</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" t="s">
+        <v>444</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s">
+        <v>47</v>
+      </c>
+      <c r="K82" t="s">
+        <v>47</v>
+      </c>
+      <c r="L82" t="s">
+        <v>445</v>
+      </c>
+      <c r="M82" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" t="s">
+        <v>446</v>
+      </c>
+      <c r="P82" t="s">
         <v>450</v>
       </c>
-      <c r="E82" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" t="s">
-        <v>445</v>
-      </c>
-      <c r="H82" t="s">
-        <v>47</v>
-      </c>
-      <c r="I82" t="s">
-        <v>47</v>
-      </c>
-      <c r="J82" t="s">
-        <v>47</v>
-      </c>
-      <c r="K82" t="s">
-        <v>47</v>
-      </c>
-      <c r="L82" t="s">
-        <v>446</v>
-      </c>
-      <c r="M82" t="s">
-        <v>47</v>
-      </c>
-      <c r="N82" t="s">
-        <v>47</v>
-      </c>
-      <c r="O82" t="s">
-        <v>447</v>
-      </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
+        <v>47</v>
+      </c>
+      <c r="R82" t="s">
+        <v>47</v>
+      </c>
+      <c r="S82" t="s">
+        <v>47</v>
+      </c>
+      <c r="T82" t="s">
+        <v>47</v>
+      </c>
+      <c r="U82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>47</v>
-      </c>
-      <c r="R82" t="s">
-        <v>47</v>
-      </c>
-      <c r="S82" t="s">
-        <v>47</v>
-      </c>
-      <c r="T82" t="s">
-        <v>47</v>
-      </c>
-      <c r="U82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
-      <c r="A83" t="s">
-        <v>452</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D83" t="s">
+        <v>452</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" t="s">
+        <v>444</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83" t="s">
+        <v>47</v>
+      </c>
+      <c r="L83" t="s">
+        <v>445</v>
+      </c>
+      <c r="M83" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83" t="s">
+        <v>47</v>
+      </c>
+      <c r="O83" t="s">
+        <v>446</v>
+      </c>
+      <c r="P83" t="s">
         <v>453</v>
       </c>
-      <c r="E83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" t="s">
-        <v>47</v>
-      </c>
-      <c r="G83" t="s">
-        <v>445</v>
-      </c>
-      <c r="H83" t="s">
-        <v>47</v>
-      </c>
-      <c r="I83" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" t="s">
-        <v>47</v>
-      </c>
-      <c r="K83" t="s">
-        <v>47</v>
-      </c>
-      <c r="L83" t="s">
-        <v>446</v>
-      </c>
-      <c r="M83" t="s">
-        <v>47</v>
-      </c>
-      <c r="N83" t="s">
-        <v>47</v>
-      </c>
-      <c r="O83" t="s">
-        <v>447</v>
-      </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
+        <v>47</v>
+      </c>
+      <c r="R83" t="s">
+        <v>47</v>
+      </c>
+      <c r="S83" t="s">
+        <v>47</v>
+      </c>
+      <c r="T83" t="s">
+        <v>47</v>
+      </c>
+      <c r="U83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>47</v>
-      </c>
-      <c r="R83" t="s">
-        <v>47</v>
-      </c>
-      <c r="S83" t="s">
-        <v>47</v>
-      </c>
-      <c r="T83" t="s">
-        <v>47</v>
-      </c>
-      <c r="U83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
-      <c r="A84" t="s">
-        <v>455</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D84" t="s">
+        <v>455</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84" t="s">
+        <v>444</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>47</v>
+      </c>
+      <c r="K84" t="s">
+        <v>47</v>
+      </c>
+      <c r="L84" t="s">
+        <v>445</v>
+      </c>
+      <c r="M84" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" t="s">
+        <v>47</v>
+      </c>
+      <c r="O84" t="s">
+        <v>446</v>
+      </c>
+      <c r="P84" t="s">
         <v>456</v>
-      </c>
-      <c r="E84" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" t="s">
-        <v>445</v>
-      </c>
-      <c r="H84" t="s">
-        <v>47</v>
-      </c>
-      <c r="I84" t="s">
-        <v>47</v>
-      </c>
-      <c r="J84" t="s">
-        <v>47</v>
-      </c>
-      <c r="K84" t="s">
-        <v>47</v>
-      </c>
-      <c r="L84" t="s">
-        <v>446</v>
-      </c>
-      <c r="M84" t="s">
-        <v>47</v>
-      </c>
-      <c r="N84" t="s">
-        <v>47</v>
-      </c>
-      <c r="O84" t="s">
-        <v>447</v>
-      </c>
-      <c r="P84" t="s">
-        <v>457</v>
       </c>
       <c r="Q84" t="s">
         <v>47</v>
